--- a/Jeremy Thesis/Top 7 Tests.xlsx
+++ b/Jeremy Thesis/Top 7 Tests.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miste\PycharmProjects\SCAL_USIgnite-911\Jeremy Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A40AF948-E6FE-4A26-80E4-A4AE8B8D4AE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92F11E7-55D7-46F8-BF77-BE8CF72D024D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TS 50-50 Split FeatSelect Test " sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
   <si>
     <t>Train_Acc</t>
   </si>
@@ -74,12 +84,15 @@
   </si>
   <si>
     <t>Forecast Results</t>
+  </si>
+  <si>
+    <t>F1 Score</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -584,7 +597,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -594,8 +607,11 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -950,11 +966,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,8 +982,8 @@
     <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.28515625" bestFit="1" customWidth="1"/>
@@ -1141,6 +1157,12 @@
       <c r="G8" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="H8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
@@ -1164,6 +1186,14 @@
       <c r="G9" s="7">
         <v>0.81248387928810895</v>
       </c>
+      <c r="H9" s="6">
+        <f>B9/(B9+E9)</f>
+        <v>4.4678055190538767E-2</v>
+      </c>
+      <c r="I9" s="6">
+        <f>2*((F9*H9)/(F9+H9))</f>
+        <v>8.2324455205811137E-2</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
@@ -1187,6 +1217,14 @@
       <c r="G10" s="7">
         <v>0.89924545051043003</v>
       </c>
+      <c r="H10" s="6">
+        <f t="shared" ref="H10:H15" si="0">B10/(B10+E10)</f>
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="I10" s="6">
+        <f t="shared" ref="I10:I15" si="1">2*((F10*H10)/(F10+H10))</f>
+        <v>0.15514333895446877</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
@@ -1210,6 +1248,14 @@
       <c r="G11" s="7">
         <v>0.87267011003817596</v>
       </c>
+      <c r="H11" s="6">
+        <f t="shared" si="0"/>
+        <v>0.12903225806451613</v>
+      </c>
+      <c r="I11" s="6">
+        <f t="shared" si="1"/>
+        <v>0.21079046424090331</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
@@ -1233,6 +1279,14 @@
       <c r="G12" s="7">
         <v>0.80885267562210905</v>
       </c>
+      <c r="H12" s="6">
+        <f t="shared" si="0"/>
+        <v>4.194260485651214E-2</v>
+      </c>
+      <c r="I12" s="6">
+        <f t="shared" si="1"/>
+        <v>7.8838174273858919E-2</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
@@ -1256,6 +1310,14 @@
       <c r="G13" s="7">
         <v>0.86447368421052595</v>
       </c>
+      <c r="H13" s="6">
+        <f t="shared" si="0"/>
+        <v>4.6296296296296294E-2</v>
+      </c>
+      <c r="I13" s="6">
+        <f t="shared" si="1"/>
+        <v>8.7336244541484712E-2</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
@@ -1279,6 +1341,14 @@
       <c r="G14" s="7">
         <v>0.85404688191065903</v>
       </c>
+      <c r="H14" s="6">
+        <f t="shared" si="0"/>
+        <v>6.7796610169491525E-2</v>
+      </c>
+      <c r="I14" s="6">
+        <f t="shared" si="1"/>
+        <v>0.12229299363057324</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
@@ -1302,37 +1372,53 @@
       <c r="G15" s="7">
         <v>0.82532265242545599</v>
       </c>
+      <c r="H15" s="6">
+        <f t="shared" si="0"/>
+        <v>7.1005917159763315E-2</v>
+      </c>
+      <c r="I15" s="6">
+        <f t="shared" si="1"/>
+        <v>0.12631578947368419</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="11">
         <f>AVERAGE(B9:B15)</f>
         <v>48.571428571428569</v>
       </c>
-      <c r="C16" s="10">
-        <f t="shared" ref="C16:G16" si="0">AVERAGE(C9:C15)</f>
+      <c r="C16" s="11">
+        <f t="shared" ref="C16:G16" si="2">AVERAGE(C9:C15)</f>
         <v>34.714285714285715</v>
       </c>
-      <c r="D16" s="10">
-        <f t="shared" si="0"/>
+      <c r="D16" s="11">
+        <f t="shared" si="2"/>
         <v>3753.4285714285716</v>
       </c>
-      <c r="E16" s="10">
-        <f t="shared" si="0"/>
+      <c r="E16" s="11">
+        <f t="shared" si="2"/>
         <v>668.42857142857144</v>
       </c>
-      <c r="F16" s="9">
-        <f t="shared" si="0"/>
+      <c r="F16" s="12">
+        <f t="shared" si="2"/>
         <v>0.60175020322477013</v>
       </c>
-      <c r="G16" s="9">
-        <f t="shared" si="0"/>
+      <c r="G16" s="12">
+        <f t="shared" si="2"/>
         <v>0.84815647628649493</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="13">
+        <f>AVERAGE(H9:H15)</f>
+        <v>7.039310596244544E-2</v>
+      </c>
+      <c r="I16" s="13">
+        <f>AVERAGE(I9:I15)</f>
+        <v>0.12329163718868345</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
@@ -1354,8 +1440,14 @@
       <c r="G18" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43831</v>
       </c>
@@ -1377,8 +1469,16 @@
       <c r="G19" s="4">
         <v>0.76502450348207296</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="3">
+        <f>B19/(B19+E19)</f>
+        <v>3.9029535864978905E-2</v>
+      </c>
+      <c r="I19" s="3">
+        <f>2*((F19*H19)/(F19+H19))</f>
+        <v>7.3050345508390915E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43832</v>
       </c>
@@ -1400,8 +1500,16 @@
       <c r="G20" s="4">
         <v>0.79804704837993701</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="3">
+        <f t="shared" ref="H20:H25" si="3">B20/(B20+E20)</f>
+        <v>6.2821833161688975E-2</v>
+      </c>
+      <c r="I20" s="3">
+        <f t="shared" ref="I20:I25" si="4">2*((F20*H20)/(F20+H20))</f>
+        <v>0.11466165413533834</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>43833</v>
       </c>
@@ -1423,8 +1531,16 @@
       <c r="G21" s="4">
         <v>0.80597350101055398</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="3">
+        <f t="shared" si="3"/>
+        <v>0.1101956745623069</v>
+      </c>
+      <c r="I21" s="3">
+        <f t="shared" si="4"/>
+        <v>0.19158460161145924</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43834</v>
       </c>
@@ -1446,8 +1562,16 @@
       <c r="G22" s="4">
         <v>0.79475886368641202</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="3">
+        <f t="shared" si="3"/>
+        <v>4.0164778578784761E-2</v>
+      </c>
+      <c r="I22" s="3">
+        <f t="shared" si="4"/>
+        <v>7.5801749271137031E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43835</v>
       </c>
@@ -1469,8 +1593,16 @@
       <c r="G23" s="4">
         <v>0.79451754385964901</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="3">
+        <f t="shared" si="3"/>
+        <v>3.5015447991761074E-2</v>
+      </c>
+      <c r="I23" s="3">
+        <f t="shared" si="4"/>
+        <v>6.7326732673267331E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43836</v>
       </c>
@@ -1492,8 +1624,16 @@
       <c r="G24" s="4">
         <v>0.79898275099513405</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="3">
+        <f t="shared" si="3"/>
+        <v>6.3851699279093718E-2</v>
+      </c>
+      <c r="I24" s="3">
+        <f t="shared" si="4"/>
+        <v>0.11832061068702289</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43837</v>
       </c>
@@ -1515,37 +1655,54 @@
       <c r="G25" s="4">
         <v>0.79928793947485499</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="H25" s="3">
+        <f t="shared" si="3"/>
+        <v>7.1060762100926878E-2</v>
+      </c>
+      <c r="I25" s="3">
+        <f t="shared" si="4"/>
+        <v>0.12825278810408922</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="11">
         <f>AVERAGE(B19:B25)</f>
         <v>58.428571428571431</v>
       </c>
-      <c r="C26" s="10">
-        <f t="shared" ref="C26:G26" si="1">AVERAGE(C19:C25)</f>
+      <c r="C26" s="11">
+        <f t="shared" ref="C26:G26" si="5">AVERAGE(C19:C25)</f>
         <v>24.857142857142858</v>
       </c>
-      <c r="D26" s="10">
-        <f t="shared" si="1"/>
+      <c r="D26" s="11">
+        <f t="shared" si="5"/>
         <v>3512.5714285714284</v>
       </c>
-      <c r="E26" s="10">
-        <f t="shared" si="1"/>
+      <c r="E26" s="11">
+        <f t="shared" si="5"/>
         <v>909.28571428571433</v>
       </c>
-      <c r="F26" s="9">
-        <f t="shared" si="1"/>
+      <c r="F26" s="12">
+        <f t="shared" si="5"/>
         <v>0.70922396961287704</v>
       </c>
-      <c r="G26" s="9">
-        <f t="shared" si="1"/>
+      <c r="G26" s="12">
+        <f t="shared" si="5"/>
         <v>0.7937988786983734</v>
+      </c>
+      <c r="H26" s="13">
+        <f>AVERAGE(H19:H25)</f>
+        <v>6.0305675934220183E-2</v>
+      </c>
+      <c r="I26" s="13">
+        <f>AVERAGE(I19:I25)</f>
+        <v>0.10985692599867215</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>